--- a/Documentacion/Catalogo.xlsx
+++ b/Documentacion/Catalogo.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="23960" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>UM</t>
   </si>
@@ -28,45 +33,12 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>RATE STANDARD PER TECH</t>
-  </si>
-  <si>
-    <t>HOURLY</t>
-  </si>
-  <si>
-    <t>RATE CUSTOM PER TECH</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>FIXED</t>
-  </si>
-  <si>
-    <t>MOBILIZATION STANDARD IN</t>
-  </si>
-  <si>
     <t>TECH</t>
   </si>
   <si>
-    <t>MOBILIZATION STANDARD OUT</t>
-  </si>
-  <si>
-    <t>MOBILIZATION CUSTOM IN</t>
-  </si>
-  <si>
-    <t>MOBILIZATION CUSTOM OUT</t>
-  </si>
-  <si>
-    <t>AUTO RENT STANTARD</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>AUTO RENT CUSTOM</t>
-  </si>
-  <si>
     <t>TOOLING OWNER SUPPLY</t>
   </si>
   <si>
@@ -80,16 +52,70 @@
   </si>
   <si>
     <t>TOOLING AXIS SUPPLY OWN</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>STANDARD HOURLY RATE PER TECH</t>
+  </si>
+  <si>
+    <t>CUSTOM HOURLY RATE PER TECH</t>
+  </si>
+  <si>
+    <t>TURBINE</t>
+  </si>
+  <si>
+    <t>FIXED RATE PER TURBINE</t>
+  </si>
+  <si>
+    <t>FIXED RATE PER MW</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MOBILIZATION IN STANDARD RATE</t>
+  </si>
+  <si>
+    <t>MOBILIZATION OUT STANDARD RATE</t>
+  </si>
+  <si>
+    <t>MOBILIZATION IN CUSTOM RATE</t>
+  </si>
+  <si>
+    <t>MOBILIZATION OUT CUSTOM RATE</t>
+  </si>
+  <si>
+    <t>AUTO RENTAL CUSTOM RATE</t>
+  </si>
+  <si>
+    <t>PER DIEM A</t>
+  </si>
+  <si>
+    <t>PER DIEM B</t>
+  </si>
+  <si>
+    <t>PER DIEM C</t>
+  </si>
+  <si>
+    <t>PER DIEM D</t>
+  </si>
+  <si>
+    <t>$/DAY</t>
+  </si>
+  <si>
+    <t>AUTO RENTAL STANDARD RATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -152,16 +178,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -173,10 +199,10 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -185,25 +211,25 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -218,7 +244,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -230,10 +256,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -242,7 +268,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -275,7 +301,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -287,7 +313,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -296,7 +322,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,7 +337,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,14 +346,53 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -335,9 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -353,7 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -362,12 +425,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,194 +733,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="2:5" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:5" ht="16" customHeight="1" thickBot="1">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="2:5" ht="16" customHeight="1" thickBot="1">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:5" ht="16" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="16" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:5" ht="16" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:5" ht="16" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="16" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="2:5" ht="16" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B4" s="9" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B6" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B7" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.95" customHeight="1">
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1"/>
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1">
+      <c r="B20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>